--- a/xlsx/美国各州首府列表_intext.xlsx
+++ b/xlsx/美国各州首府列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="242">
   <si>
     <t>美国各州首府列表</t>
   </si>
@@ -29,7 +29,7 @@
     <t>亚拉巴马州</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国各州首府列表</t>
+    <t>政策_政策_美国_美国各州首府列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%93%A5%E9%A9%AC%E5%88%A9_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%9A%AE%E5%8D%A1_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>托皮卡 (堪薩斯州)</t>
+    <t>托皮卡 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%80%AB%E5%A8%9C_(%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>海倫娜 (蒙大拿州)</t>
+    <t>海伦娜 (蒙大拿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A3%AE%E5%9F%8E_(%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡森城 (內華達州)</t>
+    <t>卡森城 (内华达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E8%8F%B2_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔菲 (新墨西哥州)</t>
+    <t>圣塔菲 (新墨西哥州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A5_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>俾斯麥 (北達科他州)</t>
+    <t>俾斯麦 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧林匹亞 (華盛頓州)</t>
+    <t>奥林匹亚 (华盛顿州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -641,27 +641,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
   </si>
   <si>
@@ -671,25 +668,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -701,37 +698,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -4188,7 +4185,7 @@
         <v>213</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>12</v>
@@ -4214,10 +4211,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4243,10 +4240,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4272,10 +4269,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4301,10 +4298,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4330,10 +4327,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4359,10 +4356,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4388,10 +4385,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4417,10 +4414,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4446,10 +4443,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4475,10 +4472,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4504,10 +4501,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4533,10 +4530,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4562,10 +4559,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4591,10 +4588,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
